--- a/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,61 +22,100 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>009242</t>
+  </si>
+  <si>
+    <t>009164</t>
+  </si>
+  <si>
+    <t>008356</t>
+  </si>
+  <si>
     <t>005775</t>
   </si>
   <si>
+    <t>009165</t>
+  </si>
+  <si>
+    <t>009243</t>
+  </si>
+  <si>
+    <t>010434</t>
+  </si>
+  <si>
     <t>005776</t>
   </si>
   <si>
-    <t>010434</t>
-  </si>
-  <si>
-    <t>008356</t>
-  </si>
-  <si>
-    <t>009164</t>
-  </si>
-  <si>
-    <t>009165</t>
-  </si>
-  <si>
-    <t>009242</t>
-  </si>
-  <si>
-    <t>009243</t>
+    <t>中加核心智造混合A</t>
+  </si>
+  <si>
+    <t>中加聚庆六个月定期开放混合A</t>
+  </si>
+  <si>
+    <t>中加科丰价值精选混合</t>
   </si>
   <si>
     <t>中加转型动力灵活配置混合A</t>
   </si>
   <si>
+    <t>中加聚庆六个月定期开放混合C</t>
+  </si>
+  <si>
+    <t>中加核心智造混合C</t>
+  </si>
+  <si>
+    <t>红土创新医疗保健股票</t>
+  </si>
+  <si>
     <t>中加转型动力灵活配置混合C</t>
   </si>
   <si>
-    <t>红土创新医疗保健股票</t>
-  </si>
-  <si>
-    <t>中加科丰价值精选混合</t>
-  </si>
-  <si>
-    <t>中加聚庆六个月定期开放混合A</t>
-  </si>
-  <si>
-    <t>中加聚庆六个月定期开放混合C</t>
-  </si>
-  <si>
-    <t>中加核心智造混合A</t>
-  </si>
-  <si>
-    <t>中加核心智造混合C</t>
+    <t>2.06</t>
+  </si>
+  <si>
+    <t>6.59</t>
+  </si>
+  <si>
+    <t>5.48</t>
+  </si>
+  <si>
+    <t>1.18</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>81.84</t>
+  </si>
+  <si>
+    <t>22.36</t>
+  </si>
+  <si>
+    <t>22.83</t>
   </si>
   <si>
     <t>81.13</t>
@@ -85,13 +124,13 @@
     <t>81.44</t>
   </si>
   <si>
-    <t>22.83</t>
-  </si>
-  <si>
-    <t>22.36</t>
-  </si>
-  <si>
-    <t>81.84</t>
+    <t>3.38</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.79</t>
   </si>
   <si>
     <t>3.37</t>
@@ -100,13 +139,28 @@
     <t>4.40</t>
   </si>
   <si>
-    <t>0.79</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>3.38</t>
+    <t>0.0696</t>
+  </si>
+  <si>
+    <t>0.0488</t>
+  </si>
+  <si>
+    <t>0.0433</t>
+  </si>
+  <si>
+    <t>0.0398</t>
+  </si>
+  <si>
+    <t>0.0237</t>
+  </si>
+  <si>
+    <t>0.0068</t>
+  </si>
+  <si>
+    <t>0.0053</t>
+  </si>
+  <si>
+    <t>0.0047</t>
   </si>
 </sst>
 </file>
@@ -464,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,164 +540,218 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1201,4 +1202,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1410,4 +1411,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1419,7 +1420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1430,17 +1431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1450,14 +1471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.33</v>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1466,14 +1509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.88</v>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1482,13 +1547,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2105</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011377</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011378</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信积极成长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.33</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.88</v>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2136,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2255,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,17 +2267,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2286,14 +2307,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5600000000000001</v>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3363</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2302,14 +2345,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.92</v>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2318,14 +2383,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.33</v>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2334,14 +2421,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.88</v>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2350,13 +2459,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.24</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,357 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009242</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加核心智造混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.84</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0696</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009164</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>22.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008356</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中加科丰价值精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>22.83</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0398</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009165</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加聚庆六个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>81.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010434</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>红土创新医疗保健股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.44</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>81.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
+      <c r="D7" t="n">
+        <v>0.24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -816,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -867,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000711</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实医疗保健股票</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.89</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.36</t>
+          <t>62.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5048</t>
+          <t>0.3363</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -905,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>012071</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>中加喜利回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>78.76</t>
+          <t>45.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1368</t>
+          <t>0.1676</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -943,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1178</t>
+          <t>0.1200</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -981,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009164</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合A</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>62.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.0961</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1019,32 +791,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>012072</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>中加喜利回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>72.86</t>
+          <t>45.45</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0882</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1057,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009165</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合C</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.31</t>
+          <t>61.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0239</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1095,112 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>78.76</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.16</t>
+          <t>5.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0122</t>
+          <t>0.0047</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005104</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富荣福康混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005105</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富荣福康混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>72.44</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1235,7 +931,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1265,36 +961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>012071</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>中加喜利回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>69.76</t>
+          <t>46.57</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1590</t>
+          <t>0.1607</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1303,36 +999,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>73.44</t>
+          <t>66.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1341,32 +1037,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>69.76</t>
+          <t>65.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0461</t>
+          <t>0.1037</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1379,35 +1075,111 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>009243</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>中加核心智造混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>73.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1972,7 +1744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,7 +1765,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2023,36 +1795,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012071</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合A</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.57</t>
+          <t>69.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1607</t>
+          <t>0.1590</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2061,36 +1833,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.34</t>
+          <t>73.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2099,32 +1871,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65.71</t>
+          <t>69.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.06</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1037</t>
+          <t>0.0461</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -2137,111 +1909,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012072</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合C</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46.57</t>
+          <t>73.44</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0847</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>66.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0753</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009243</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中加核心智造混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2256,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,7 +1973,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2307,36 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>000711</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>嘉实医疗保健股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>14.89</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.53</t>
+          <t>85.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3363</t>
+          <t>0.5048</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2345,36 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012071</t>
+          <t>009242</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合A</t>
+          <t>中加核心智造混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>45.45</t>
+          <t>78.76</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1676</t>
+          <t>0.1368</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2383,36 +2079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009242</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中加核心智造混合A</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>72.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1200</t>
+          <t>0.1178</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2421,36 +2117,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>009164</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>中加聚庆六个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>62.53</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0961</t>
+          <t>0.0489</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2459,32 +2155,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012072</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合C</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>45.45</t>
+          <t>72.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0882</t>
+          <t>0.0313</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -2497,36 +2193,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009243</t>
+          <t>009165</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加核心智造混合C</t>
+          <t>中加聚庆六个月定期开放混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>61.92</t>
+          <t>20.31</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0198</t>
+          <t>0.0239</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2535,36 +2231,112 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>009243</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>中加核心智造混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>78.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.87</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.0047</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>9</v>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2578,128 +2350,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008356</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加科丰价值精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
-        <v>0.24</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
+++ b/数据整理/stocks/A股/科创板/688026-洁特生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.88</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -583,6 +600,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>50.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -904,7 +1205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1188,7 +1489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1738,7 +2039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1946,7 +2247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2344,7 +2645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
